--- a/Users/Users.xlsx
+++ b/Users/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UE4project\VR\VRSurgery\Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB767B-6A29-4380-9275-35F56F5F0DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F4204-0E91-4D02-89C6-8E4152D9AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -393,6 +393,71 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
